--- a/[Document]/DEBA_진행방향.xlsx
+++ b/[Document]/DEBA_진행방향.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KK\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEIA]\[DEBA]\[Document]\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37B16E6-6E72-4144-AE1D-180105F1D040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFA0EC8-6218-4DE1-AD49-E424BAE681C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024년" sheetId="4" r:id="rId1"/>
+    <sheet name="회의일지" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2024년'!#REF!</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
   <si>
     <t>임보민</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,6 +199,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="hnc_go_b_hint_gs"/>
+        <family val="3"/>
+        <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -250,6 +253,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="hnc_go_b_hint_gs"/>
+        <family val="3"/>
+        <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -295,6 +300,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="hnc_go_b_hint_gs"/>
+        <family val="3"/>
+        <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -745,6 +752,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="hnc_go_b_hint_gs"/>
+        <family val="3"/>
+        <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -793,6 +802,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="hnc_go_b_hint_gs"/>
+        <family val="3"/>
+        <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -881,45 +892,235 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>치매와</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>동일한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>분석방향</t>
+      <t>논문</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>온라인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>텍스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기반</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>글로벌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마켓사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>트랜드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소비자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동향</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분석</t>
     </r>
     <r>
       <rPr>
@@ -930,265 +1131,13 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>O
-(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>논문</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>온라인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>내</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>텍스트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>데이터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기반</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>글로벌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>마켓사</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>트랜드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>소비자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>동향</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>분석</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="hnc_go_b_hint_gs"/>
+        <family val="3"/>
+        <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -1316,6 +1265,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="hnc_go_b_hint_gs"/>
+        <family val="3"/>
+        <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -1412,6 +1363,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="hnc_go_b_hint_gs"/>
+        <family val="3"/>
+        <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -1638,6 +1591,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="hnc_go_b_hint_gs"/>
+        <family val="3"/>
+        <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -1937,6 +1892,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="hnc_go_b_hint_gs"/>
+        <family val="3"/>
+        <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
       <t>하였고 향후 이를 금융데이터에 적용하여 논문작성 추천</t>
@@ -2243,6 +2200,8 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="hnc_go_b_hint_gs"/>
+        <family val="3"/>
+        <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
       <t>집중</t>
@@ -2270,6 +2229,8 @@
         <sz val="12"/>
         <color theme="0"/>
         <rFont val="hnc_go_b_hint_gs"/>
+        <family val="3"/>
+        <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
       <t>멘토링</t>
@@ -2291,6 +2252,57 @@
       </rPr>
       <t>방향</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>협업공간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>협업도구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주요논의사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1기 및 2기 인사
+본인의 브랜딩 방향은 최소 시간 대비 전문성을 빠르게 드러낼 수 있는 것을 추천
+프로젝트는 모든 멤버가 KTX를 먼저 진행하고 향후 방향에 따라 기부 분석을 진행
+KTX 프로젝트의 Due는 6월 말
+Zoom으로 1주일에 1회 정도 빠르게 미팅을 하며 필요시 오픈채팅방에서 분석 결과 토론이나 이슈 해결 창구로 실시간 활용
+스터디 자료는 유투브와 링크로 우선순위를 포함해서 공유해줄 것이며 필요시 빠르게 습득하면 됨	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트를 포함한 코드 공유 및 분석 결과 공유: https://github.com/thekimk/DEBA-Research
+세부 프로젝트 설명, 데이터 및 분석 코드 등은 위 링크 Project 관련 폴더에 업데이트 할 것이며 누구나 업로드 및 다운로드 가능
+"CHAMJ, IMBOMIN" 처럼 본인이 분석 및 공유할 공간을 "대문자 이름이든.. 말도하고 분석도 할줄아는 감자 와 같은 별명이든" 생성해볼 것
+본인이 생성한 폴더 내부에 자료든 데이터든 코드든 분석결과든 실시간으로 업로드/공유/협업을 하면 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업로드/공유/협업을 쉽게 하는 도구 들이 있음
+Git을 사용하여 협업을 하는 것은 글로벌에서 매우 기본적으로 사용하는 것이니 사용법을 숙지
+향후 본인의 포트폴리오를 즉석에서 보여주고 어필하거나 홈페이지를 구축하는 것도 글로벌 트랜드이니 겸사겸사 숙지 추천
+아마 유투브에 "git 협업, sourcetree" 등을 검색하면 관련 설명은 매우 많을것이며 아래 링크를 샘플로 첨가
+이미 사용중이면 sourcetree가 아닌 다른 도구를 사용해도 되며 설치 및 활용과정의 사소한 질문이라도 언제든 오픈채팅방에 빠르게 공유하길 추천
+혹시 유용한 유투브나 자료 링크가 있다면 오픈채팅방에 함께 공유 추천
+https://ux.stories.pe.kr/182?category=832417
+https://velog.io/@easyhyun00/Git-%EC%86%8C%EC%8A%A4%ED%8A%B8%EB%A6%ACSourceTree-%EA%B8%B0%EC%B4%88-%EC%82%AC%EC%9A%A9%EB%B2%95
+https://ux.stories.pe.kr/181"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Future Action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KTX 프로젝트의 데이터 6개를 모두 행과 열로 결합하여 필요한 15개의 Case로 분류 저장할 것
+관련 내용의 유투브와 문서는 링크로 금주 내 공유할 예정이며 Due는 5/26
+5/27 월요일에 Zoom으로 여러분들의 15종 Case 데이터와 작성을 위한 Code를 확인 및 피드백 예정
+분석과 작업과정은 DEBA-Research Github의 본인이 생성한 폴더 내에 업로드 하여 실시간으로 확인할 수 있도록 추천</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2298,7 +2310,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2317,6 +2329,8 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="hnc_go_b_hint_gs"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2340,6 +2354,8 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="hnc_go_b_hint_gs"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2390,6 +2406,8 @@
       <sz val="12"/>
       <color theme="0"/>
       <name val="hnc_go_b_hint_gs"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2405,11 +2423,28 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="hnc_go_b_hint_gs"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -2792,7 +2827,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2943,6 +2978,27 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3161,28 +3217,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33CCF47F-40B8-49B4-9BF7-13D77EED00A0}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="36.9140625" style="2" customWidth="1"/>
-    <col min="2" max="9" width="32.58203125" style="1" customWidth="1"/>
-    <col min="10" max="15" width="30.58203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.88671875" style="2" customWidth="1"/>
+    <col min="2" max="9" width="32.5546875" style="1" customWidth="1"/>
+    <col min="10" max="15" width="30.5546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" style="1" customWidth="1"/>
     <col min="17" max="20" width="8.6640625" style="1"/>
-    <col min="21" max="23" width="30.58203125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="33.08203125" style="1" customWidth="1"/>
+    <col min="21" max="23" width="30.5546875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="33.109375" style="1" customWidth="1"/>
     <col min="25" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18">
+    <row r="1" spans="1:9" ht="17.399999999999999">
       <c r="A1" s="49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="46" t="s">
         <v>20</v>
@@ -3197,7 +3253,7 @@
       <c r="H1" s="47"/>
       <c r="I1" s="48"/>
     </row>
-    <row r="2" spans="1:9" ht="18.5" thickBot="1">
+    <row r="2" spans="1:9" ht="18" thickBot="1">
       <c r="A2" s="50"/>
       <c r="B2" s="18" t="s">
         <v>1</v>
@@ -3224,7 +3280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="48.5" thickTop="1">
+    <row r="3" spans="1:9" ht="47.4" thickTop="1">
       <c r="A3" s="33" t="s">
         <v>9</v>
       </c>
@@ -3247,7 +3303,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="128.5" thickBot="1">
+    <row r="4" spans="1:9" ht="141" thickBot="1">
       <c r="A4" s="34" t="s">
         <v>10</v>
       </c>
@@ -3270,9 +3326,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="35.5" thickTop="1">
+    <row r="5" spans="1:9" ht="39" thickTop="1">
       <c r="A5" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>16</v>
@@ -3286,11 +3342,11 @@
       <c r="E5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>16</v>
+      <c r="F5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>37</v>
@@ -3299,9 +3355,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="35">
+    <row r="6" spans="1:9" ht="57.6">
       <c r="A6" s="36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="26" t="s">
         <v>16</v>
@@ -3315,11 +3371,11 @@
       <c r="E6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>38</v>
+      <c r="F6" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>16</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>16</v>
@@ -3328,7 +3384,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="69.5">
+    <row r="7" spans="1:9" ht="99.6">
       <c r="A7" s="36" t="s">
         <v>18</v>
       </c>
@@ -3339,7 +3395,7 @@
         <v>31</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="3"/>
@@ -3347,7 +3403,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="27"/>
     </row>
-    <row r="8" spans="1:9" ht="25">
+    <row r="8" spans="1:9" ht="39.6">
       <c r="A8" s="36" t="s">
         <v>19</v>
       </c>
@@ -3366,7 +3422,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="27"/>
     </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" ht="32">
+    <row r="9" spans="1:9" s="2" customFormat="1" ht="31.2">
       <c r="A9" s="37" t="s">
         <v>12</v>
       </c>
@@ -3391,12 +3447,12 @@
       </c>
       <c r="I9" s="27"/>
     </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" ht="16">
+    <row r="10" spans="1:9" s="2" customFormat="1" ht="15.6">
       <c r="A10" s="37" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>16</v>
@@ -3412,9 +3468,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" ht="18" thickBot="1">
+    <row r="11" spans="1:9" s="2" customFormat="1" ht="19.8" thickBot="1">
       <c r="A11" s="38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="29" t="s">
         <v>8</v>
@@ -3435,19 +3491,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="97" thickTop="1" thickBot="1">
+    <row r="12" spans="1:9" ht="126" thickTop="1" thickBot="1">
       <c r="A12" s="39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="44"/>
       <c r="C12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="E12" s="31" t="s">
         <v>42</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>43</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>23</v>
@@ -3456,13 +3512,13 @@
         <v>26</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I12" s="32" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="14.5" thickTop="1"/>
+    <row r="13" spans="1:9" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
@@ -3472,4 +3528,67 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4291E4-4839-43D4-8A3D-FB17E351FD98}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="A1:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" style="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="139" style="51" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="51"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="19.2">
+      <c r="A1" s="54">
+        <v>45426</v>
+      </c>
+      <c r="B1" s="54"/>
+    </row>
+    <row r="2" spans="1:3" ht="110.4" customHeight="1">
+      <c r="A2" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="53"/>
+    </row>
+    <row r="3" spans="1:3" ht="69.599999999999994">
+      <c r="A3" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="174">
+      <c r="A4" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="69.599999999999994">
+      <c r="A5" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/[Document]/DEBA_진행방향.xlsx
+++ b/[Document]/DEBA_진행방향.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEIA]\[DEBA]\[Document]\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFA0EC8-6218-4DE1-AD49-E424BAE681C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF2D6BE-7B9F-4494-855F-4B069F8DB057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19296" yWindow="-84" windowWidth="19392" windowHeight="11472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2024년" sheetId="4" r:id="rId1"/>
-    <sheet name="회의일지" sheetId="5" r:id="rId2"/>
+    <sheet name="회의일지" sheetId="5" r:id="rId1"/>
+    <sheet name="2024년" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2024년'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2024년'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2964,6 +2964,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2979,26 +2997,8 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3214,6 +3214,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4291E4-4839-43D4-8A3D-FB17E351FD98}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="13.9140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="139" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.9140625" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17.5">
+      <c r="A1" s="57">
+        <v>45426</v>
+      </c>
+      <c r="B1" s="57"/>
+    </row>
+    <row r="2" spans="1:3" ht="110.4" customHeight="1">
+      <c r="A2" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="48"/>
+    </row>
+    <row r="3" spans="1:3" ht="68">
+      <c r="A3" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="153">
+      <c r="A4" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="68">
+      <c r="A5" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33CCF47F-40B8-49B4-9BF7-13D77EED00A0}">
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -3221,40 +3284,40 @@
       <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="36.88671875" style="2" customWidth="1"/>
-    <col min="2" max="9" width="32.5546875" style="1" customWidth="1"/>
-    <col min="10" max="15" width="30.5546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.9140625" style="2" customWidth="1"/>
+    <col min="2" max="9" width="32.58203125" style="1" customWidth="1"/>
+    <col min="10" max="15" width="30.58203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.58203125" style="1" customWidth="1"/>
     <col min="17" max="20" width="8.6640625" style="1"/>
-    <col min="21" max="23" width="30.5546875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="33.109375" style="1" customWidth="1"/>
+    <col min="21" max="23" width="30.58203125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="33.08203125" style="1" customWidth="1"/>
     <col min="25" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.399999999999999">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:9" ht="18">
+      <c r="A1" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="46" t="s">
+      <c r="C1" s="53"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54"/>
     </row>
-    <row r="2" spans="1:9" ht="18" thickBot="1">
-      <c r="A2" s="50"/>
+    <row r="2" spans="1:9" ht="18.5" thickBot="1">
+      <c r="A2" s="56"/>
       <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
@@ -3280,7 +3343,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="47.4" thickTop="1">
+    <row r="3" spans="1:9" ht="48.5" thickTop="1">
       <c r="A3" s="33" t="s">
         <v>9</v>
       </c>
@@ -3303,7 +3366,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="141" thickBot="1">
+    <row r="4" spans="1:9" ht="128.5" thickBot="1">
       <c r="A4" s="34" t="s">
         <v>10</v>
       </c>
@@ -3326,7 +3389,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="39" thickTop="1">
+    <row r="5" spans="1:9" ht="35.5" thickTop="1">
       <c r="A5" s="35" t="s">
         <v>44</v>
       </c>
@@ -3355,7 +3418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="57.6">
+    <row r="6" spans="1:9" ht="35">
       <c r="A6" s="36" t="s">
         <v>45</v>
       </c>
@@ -3384,7 +3447,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="99.6">
+    <row r="7" spans="1:9" ht="69.5">
       <c r="A7" s="36" t="s">
         <v>18</v>
       </c>
@@ -3403,7 +3466,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="27"/>
     </row>
-    <row r="8" spans="1:9" ht="39.6">
+    <row r="8" spans="1:9" ht="25">
       <c r="A8" s="36" t="s">
         <v>19</v>
       </c>
@@ -3422,7 +3485,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="27"/>
     </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" ht="31.2">
+    <row r="9" spans="1:9" s="2" customFormat="1" ht="32">
       <c r="A9" s="37" t="s">
         <v>12</v>
       </c>
@@ -3447,7 +3510,7 @@
       </c>
       <c r="I9" s="27"/>
     </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" ht="15.6">
+    <row r="10" spans="1:9" s="2" customFormat="1" ht="16">
       <c r="A10" s="37" t="s">
         <v>17</v>
       </c>
@@ -3468,7 +3531,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" ht="19.8" thickBot="1">
+    <row r="11" spans="1:9" s="2" customFormat="1" ht="18" thickBot="1">
       <c r="A11" s="38" t="s">
         <v>46</v>
       </c>
@@ -3491,7 +3554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="126" thickTop="1" thickBot="1">
+    <row r="12" spans="1:9" ht="97" thickTop="1" thickBot="1">
       <c r="A12" s="39" t="s">
         <v>47</v>
       </c>
@@ -3518,7 +3581,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" thickTop="1"/>
+    <row r="13" spans="1:9" ht="14.5" thickTop="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
@@ -3528,67 +3591,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4291E4-4839-43D4-8A3D-FB17E351FD98}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="A1:B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <cols>
-    <col min="1" max="1" width="13.88671875" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="139" style="51" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="51"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="19.2">
-      <c r="A1" s="54">
-        <v>45426</v>
-      </c>
-      <c r="B1" s="54"/>
-    </row>
-    <row r="2" spans="1:3" ht="110.4" customHeight="1">
-      <c r="A2" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="53"/>
-    </row>
-    <row r="3" spans="1:3" ht="69.599999999999994">
-      <c r="A3" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="57" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="174">
-      <c r="A4" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="57" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="69.599999999999994">
-      <c r="A5" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/[Document]/DEBA_진행방향.xlsx
+++ b/[Document]/DEBA_진행방향.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEIA]\[DEBA]\[Document]\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245863FC-B402-4304-8D5E-E50AC744E08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3479516C-D7CF-4F97-BF91-B0AECC1BE1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="회의일지" sheetId="2" r:id="rId1"/>
-    <sheet name="2024년" sheetId="1" r:id="rId2"/>
+    <sheet name="2024년멤버" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -34,6 +34,8 @@
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Hnc_go_b_hint_gs"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>2024년도 DEBA</t>
     </r>
@@ -189,6 +191,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Hnc_go_b_hint_gs"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>(</t>
     </r>
@@ -226,6 +230,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Hnc_go_b_hint_gs"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
 (</t>
@@ -642,6 +648,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Hnc_go_b_hint_gs"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>(</t>
     </r>
@@ -679,6 +687,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Hnc_go_b_hint_gs"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
 (수강)SW소모임-청년주거정책(최우수상)
@@ -693,6 +703,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Hnc_go_b_hint_gs"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>(</t>
     </r>
@@ -730,6 +742,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Hnc_go_b_hint_gs"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
 (수강)E정보시스템
@@ -831,6 +845,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Hnc_go_b_hint_gs"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>O
 (</t>
@@ -1088,6 +1104,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Hnc_go_b_hint_gs"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>O
 (</t>
@@ -1344,6 +1362,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Hnc_go_b_hint_gs"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
 (논문2: 온라인 상에서 느끼는 노인들의 디지털 리터러시 현황 분석)</t>
@@ -1384,6 +1404,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Hnc_go_b_hint_gs"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>O(</t>
     </r>
@@ -1449,6 +1471,8 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Hnc_go_b_hint_gs"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>집중</t>
     </r>
@@ -1460,6 +1484,8 @@
         <sz val="12"/>
         <color theme="0"/>
         <rFont val="Hnc_go_b_hint_gs"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>김경원교수</t>
     </r>
@@ -1469,6 +1495,8 @@
         <sz val="12"/>
         <color theme="0"/>
         <rFont val="Hnc_go_b_hint_gs"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1478,6 +1506,8 @@
         <sz val="12"/>
         <color theme="0"/>
         <rFont val="Hnc_go_b_hint_gs"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>멘토링</t>
     </r>
@@ -1488,6 +1518,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Hnc_go_b_hint_gs"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">(~5/17) SCIE </t>
     </r>
@@ -1582,6 +1614,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Hnc_go_b_hint_gs"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
 (~5/31) </t>
@@ -1677,6 +1711,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Hnc_go_b_hint_gs"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
 (~5/31) Github</t>
@@ -1755,6 +1791,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Hnc_go_b_hint_gs"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">(~5/14) </t>
     </r>
@@ -1906,6 +1944,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Hnc_go_b_hint_gs"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
 (~5/17) </t>
@@ -2064,6 +2104,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Hnc_go_b_hint_gs"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">- </t>
     </r>
@@ -2215,6 +2257,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Hnc_go_b_hint_gs"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>하였고 향후 이를 금융데이터에 적용하여 논문작성 추천</t>
     </r>
@@ -2227,53 +2271,178 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1기 및 2기 인사
-본인의 브랜딩 방향은 최소 시간 대비 전문성을 빠르게 드러낼 수 있는 것을 추천
-프로젝트는 모든 멤버가 KTX를 먼저 진행하고 향후 방향에 따라 기부 분석을 진행
-KTX 프로젝트의 Due는 6월 말
-Zoom으로 1주일에 1회 정도 빠르게 미팅을 하며 필요시 오픈채팅방에서 분석 결과 토론이나 이슈 해결 창구로 실시간 활용
-스터디 자료는 유투브와 링크로 우선순위를 포함해서 공유해줄 것이며 필요시 빠르게 습득하면 됨	</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>협업공간</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트를 포함한 코드 공유 및 분석 결과 공유: https://github.com/thekimk/DEBA-Research
-세부 프로젝트 설명, 데이터 및 분석 코드 등은 위 링크 Project 관련 폴더에 업데이트 할 것이며 누구나 업로드 및 다운로드 가능
-"CHAMJ, IMBOMIN" 처럼 본인이 분석 및 공유할 공간을 "대문자 이름이든.. 말도하고 분석도 할줄아는 감자 와 같은 별명이든" 생성해볼 것
-본인이 생성한 폴더 내부에 자료든 데이터든 코드든 분석결과든 실시간으로 업로드/공유/협업을 하면 됨</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>협업도구</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>업로드/공유/협업을 쉽게 하는 도구 들이 있음
-Git을 사용하여 협업을 하는 것은 글로벌에서 매우 기본적으로 사용하는 것이니 사용법을 숙지
-향후 본인의 포트폴리오를 즉석에서 보여주고 어필하거나 홈페이지를 구축하는 것도 글로벌 트랜드이니 겸사겸사 숙지 추천
-아마 유투브에 "git 협업, sourcetree" 등을 검색하면 관련 설명은 매우 많을것이며 아래 링크를 샘플로 첨가
-이미 사용중이면 sourcetree가 아닌 다른 도구를 사용해도 되며 설치 및 활용과정의 사소한 질문이라도 언제든 오픈채팅방에 빠르게 공유하길 추천
-혹시 유용한 유투브나 자료 링크가 있다면 오픈채팅방에 함께 공유 추천
-https://ux.stories.pe.kr/182?category=832417
-https://velog.io/@easyhyun00/Git-%EC%86%8C%EC%8A%A4%ED%8A%B8%EB%A6%ACSourceTree-%EA%B8%B0%EC%B4%88-%EC%82%AC%EC%9A%A9%EB%B2%95
-https://ux.stories.pe.kr/181"</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>Future Action</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>KTX 프로젝트의 데이터 6개를 모두 행과 열로 결합하여 필요한 15개의 Case로 분류 저장할 것
-관련 내용의 유투브와 문서는 링크로 금주 내 공유할 예정이며 Due는 5/26
-- 유투브: https://youtube.com/playlist?list=PLYP0LH6y1TM50-9XqZfI2bbIOXCxYLauH
-- 자료: https://github.com/thekimk/All-About-Machine-Learning
-(KTX 데이터 전처리와 관련된 강의는 "1 Data Preprocessing:" 으로 시작되는 10개의 강좌니 우선수강 추천하며 강의자료가 영상보다 최신이니 참고)
-5/27 월요일에 Zoom으로 여러분들의 15종 Case 데이터와 작성을 위한 Code를 확인 및 피드백 예정
-분석과 작업과정은 DEBA-Research Github의 본인이 생성한 폴더 내에 업로드 하여 실시간으로 확인할 수 있도록 추천</t>
+    <t>요약</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>[온라인 협업공간 소개]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 프로젝트를 포함한 코드 공유 및 분석 결과 공유: https://github.com/thekimk/DEBA-Research
+- 세부 프로젝트 설명, 데이터 및 분석 코드 등은 위 링크 Project 관련 폴더에 업데이트 할 것이며 누구나 업로드 및 다운로드 가능
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>- "CHAMJ, IMBOMIN" 처럼 본인이 분석 및 공유할 공간을 "대문자 이름이든.. 말도하고 분석도 할줄아는 감자 와 같은 별명이든" 생성해볼 것</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 본인이 생성한 폴더 내부에 자료든 데이터든 코드든 분석결과든 실시간으로 업로드/공유/협업을 하면 됨</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>[협업도구 소개 및 사용법]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 업로드/공유/협업을 쉽게 하는 도구 들이 있고 Github를 사용하여 협업을 하는 것은 글로벌에서 매우 기본적으로 사용하는 것이니 사용법을 숙지
+- 향후 본인의 포트폴리오를 즉석에서 보여주고 어필하거나 홈페이지를 구축하는 것도 글로벌 트랜드이니 겸사겸사 숙지 추천
+- 아마 유투브에 "git 협업, sourcetree" 등을 검색하면 관련 설명은 매우 많을것이며 아래 링크를 샘플로 첨가
+- 이미 사용중이면 sourcetree가 아닌 다른 도구를 사용해도 되며 설치 및 활용과정의 사소한 질문이라도 언제든 오픈채팅방에 빠르게 공유하길 추천
+- 혹시 유용한 유투브나 자료 링크가 있다면 오픈채팅방에 함께 공유 추천
+https://ux.stories.pe.kr/182?category=832417
+https://velog.io/@easyhyun00/Git-%EC%86%8C%EC%8A%A4%ED%8A%B8%EB%A6%ACSourceTree-%EA%B8%B0%EC%B4%88-%EC%82%AC%EC%9A%A9%EB%B2%95
+https://ux.stories.pe.kr/181"</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">[프로젝트 및 강의자료]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">- KTX 프로젝트의 최종 Due는 6월 말
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">- KTX 프로젝트의 데이터 4개를 모두 행과 열로 결합하여 필요한 15개의 Case로 분류 저장할 것 (Due: 5/26)
+(1) 필요강의: https://youtube.com/playlist?list=PLYP0LH6y1TM50-9XqZfI2bbIOXCxYLauH
+(2) 필요자료: https://github.com/thekimk/All-About-Machine-Learning
+(3) KTX 데이터 전처리와 관련된 강의는 "1 Data Preprocessing:" 으로 시작되는 10개의 강좌니 우선수강 추천하며 강의자료가 영상보다 최신이니 참고
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>- 분석과 작업과정은 DEBA-Research Github의 본인이 생성한 폴더 내에 업로드 하여 실시간으로 확인할 수 있도록 추천
+- 5/27 월요일에 Zoom으로 여러분들의 15종 Case 데이터와 작성을 위한 Code를 확인 및 피드백 예정</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>[진행사항]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 1기 및 2기 인사
+- 본인의 브랜딩 방향은 최소 시간 대비 전문성을 빠르게 드러낼 수 있는 것을 추천
+- 프로젝트는 모든 멤버가 KTX를 먼저 진행하고 향후 방향에 따라 기부 분석을 진행
+- Zoom으로 1주일에 1회 정도 빠르게 미팅을 하며 필요시 오픈채팅방에서 분석 결과 토론이나 이슈 해결 창구로 실시간 활용
+- 스터디 자료는 유투브와 링크로 우선순위를 포함해서 공유해줄 것이며 필요시 빠르게 습득하면 됨	
+- 공모전추천링크: https://www.hibrain.net/research/researches/486/recruitments/115/recruits?listType=ING</t>
+    </r>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -2281,7 +2450,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+  </numFmts>
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2293,42 +2465,58 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Hnc_go_b_hint_gs"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="hnc_go_b_hint_gs"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Hnc_go_b_hint_gs"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Hnc_go_b_hint_gs"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Hnc_go_b_hint_gs"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Hnc_go_b_hint_gs"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Hnc_go_b_hint_gs"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <b/>
@@ -2388,6 +2576,14 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2433,7 +2629,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -2939,11 +3135,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3119,7 +3352,22 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="12" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3346,61 +3594,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8691475C-6F5F-4B5E-977E-504D2E089430}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="13.9140625" style="58" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="139" style="53" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.9140625" style="53"/>
+    <col min="1" max="1" width="12.5546875" style="53" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="58" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="139" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.5">
-      <c r="A1" s="59">
+    <row r="1" spans="1:4" ht="19.2">
+      <c r="A1" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="60"/>
+    </row>
+    <row r="2" spans="1:4" ht="121.8">
+      <c r="A2" s="61">
         <v>45426</v>
       </c>
-      <c r="B1" s="59"/>
-    </row>
-    <row r="2" spans="1:3" ht="102">
-      <c r="A2" s="54" t="s">
+      <c r="B2" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="C2" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="56"/>
+    </row>
+    <row r="3" spans="1:4" ht="87">
+      <c r="A3" s="61"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="174">
+      <c r="A4" s="61"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="139.19999999999999">
+      <c r="A5" s="61"/>
+      <c r="B5" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="56"/>
-    </row>
-    <row r="3" spans="1:3" ht="68">
-      <c r="A3" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="57" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="153">
-      <c r="A4" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="119">
-      <c r="A5" s="54" t="s">
+      <c r="C5" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="57" t="s">
-        <v>72</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+  <mergeCells count="3">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B4"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3412,35 +3671,35 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="32.25" customWidth="1"/>
-    <col min="2" max="9" width="28.5" customWidth="1"/>
+    <col min="1" max="1" width="32.21875" customWidth="1"/>
+    <col min="2" max="9" width="28.44140625" customWidth="1"/>
     <col min="10" max="26" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:26" ht="17.399999999999999">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="62" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="64"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="69"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -3459,8 +3718,8 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="18">
-      <c r="A2" s="61"/>
+    <row r="2" spans="1:26" ht="17.399999999999999">
+      <c r="A2" s="66"/>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
@@ -3503,7 +3762,7 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="16">
+    <row r="3" spans="1:26" ht="26.4">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -3549,7 +3808,7 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="50">
+    <row r="4" spans="1:26" ht="66">
       <c r="A4" s="11" t="s">
         <v>19</v>
       </c>
@@ -3595,7 +3854,7 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" ht="144">
+    <row r="5" spans="1:26" ht="211.2">
       <c r="A5" s="15" t="s">
         <v>28</v>
       </c>
@@ -3641,7 +3900,7 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" ht="35">
+    <row r="6" spans="1:26" ht="38.4">
       <c r="A6" s="19" t="s">
         <v>37</v>
       </c>
@@ -3687,7 +3946,7 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" ht="52.5">
+    <row r="7" spans="1:26" ht="57.6">
       <c r="A7" s="25" t="s">
         <v>41</v>
       </c>
@@ -3733,7 +3992,7 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="85.5">
+    <row r="8" spans="1:26" ht="99.6">
       <c r="A8" s="25" t="s">
         <v>42</v>
       </c>
@@ -3769,7 +4028,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="37.5">
+    <row r="9" spans="1:26" ht="39.6">
       <c r="A9" s="25" t="s">
         <v>45</v>
       </c>
@@ -3805,7 +4064,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="32">
+    <row r="10" spans="1:26" ht="31.2">
       <c r="A10" s="30" t="s">
         <v>47</v>
       </c>
@@ -3847,7 +4106,7 @@
       <c r="Y10" s="33"/>
       <c r="Z10" s="33"/>
     </row>
-    <row r="11" spans="1:26" ht="16">
+    <row r="11" spans="1:26" ht="15.6">
       <c r="A11" s="30" t="s">
         <v>53</v>
       </c>
@@ -3885,7 +4144,7 @@
       <c r="Y11" s="33"/>
       <c r="Z11" s="33"/>
     </row>
-    <row r="12" spans="1:26" ht="17.5">
+    <row r="12" spans="1:26" ht="19.2">
       <c r="A12" s="34" t="s">
         <v>56</v>
       </c>
@@ -3925,7 +4184,7 @@
       <c r="Y12" s="33"/>
       <c r="Z12" s="33"/>
     </row>
-    <row r="13" spans="1:26" ht="128">
+    <row r="13" spans="1:26" ht="156">
       <c r="A13" s="38" t="s">
         <v>57</v>
       </c>

--- a/[Document]/DEBA_진행방향.xlsx
+++ b/[Document]/DEBA_진행방향.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEIA]\[DEBA]\[Document]\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3479516C-D7CF-4F97-BF91-B0AECC1BE1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD48FEB-1379-433C-94CA-FB6564D3AF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="회의일지" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="85">
   <si>
     <r>
       <rPr>
@@ -2442,6 +2442,79 @@
 - Zoom으로 1주일에 1회 정도 빠르게 미팅을 하며 필요시 오픈채팅방에서 분석 결과 토론이나 이슈 해결 창구로 실시간 활용
 - 스터디 자료는 유투브와 링크로 우선순위를 포함해서 공유해줄 것이며 필요시 빠르게 습득하면 됨	
 - 공모전추천링크: https://www.hibrain.net/research/researches/486/recruitments/115/recruits?listType=ING</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/27 13시</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>임보민</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>논문진행상황 공유 및 차주 계획</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>차명주</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>박재흥</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>유효정</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>조은지</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>강보현</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>이현서</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/14 14시</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>영상공유 및 전화피드백</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>[진행계획]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+1) 아래 빨간색 사항들에 대한 개별 진행상황 보고
+2) 공통적으로 필요한 지식사항 전수
+3) 개별 피드백 기반 차주 진행계획 협의 및 일정 논의
+- 전처리 방향 확정 및 개별 방향 결정
+- 모델링 방향 결정</t>
     </r>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -3176,7 +3249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3353,6 +3426,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="7" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="12" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3594,72 +3670,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8691475C-6F5F-4B5E-977E-504D2E089430}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="53" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="58" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.58203125" style="53" customWidth="1"/>
+    <col min="2" max="2" width="13.9140625" style="58" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="139" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="53"/>
+    <col min="4" max="16384" width="8.9140625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.2">
+    <row r="1" spans="1:4" ht="17.5">
       <c r="A1" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="60"/>
-    </row>
-    <row r="2" spans="1:4" ht="121.8">
-      <c r="A2" s="61">
-        <v>45426</v>
+      <c r="C1" s="61"/>
+    </row>
+    <row r="2" spans="1:4" ht="102">
+      <c r="A2" s="63" t="s">
+        <v>73</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="60" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="64"/>
+      <c r="B3" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="64"/>
+      <c r="B4" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="64"/>
+      <c r="B5" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="55"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="64"/>
+      <c r="B6" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="55"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="64"/>
+      <c r="B7" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="64"/>
+      <c r="B8" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="55"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="65"/>
+      <c r="B9" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="55"/>
+    </row>
+    <row r="10" spans="1:4" ht="119">
+      <c r="A10" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="56"/>
-    </row>
-    <row r="3" spans="1:4" ht="87">
-      <c r="A3" s="61"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="57" t="s">
+      <c r="D10" s="56"/>
+    </row>
+    <row r="11" spans="1:4" ht="85">
+      <c r="A11" s="62"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="57" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="174">
-      <c r="A4" s="61"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="57" t="s">
+    <row r="12" spans="1:4" ht="153">
+      <c r="A12" s="62"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="57" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="139.19999999999999">
-      <c r="A5" s="61"/>
-      <c r="B5" s="54" t="s">
+    <row r="13" spans="1:4" ht="136">
+      <c r="A13" s="62"/>
+      <c r="B13" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C13" s="57" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A2:A9"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3671,35 +3814,35 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="32.21875" customWidth="1"/>
-    <col min="2" max="9" width="28.44140625" customWidth="1"/>
+    <col min="1" max="1" width="32.25" customWidth="1"/>
+    <col min="2" max="9" width="28.4140625" customWidth="1"/>
     <col min="10" max="26" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="17.399999999999999">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:26" ht="18">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="67" t="s">
+      <c r="C1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="70"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -3718,8 +3861,8 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="17.399999999999999">
-      <c r="A2" s="66"/>
+    <row r="2" spans="1:26" ht="18">
+      <c r="A2" s="67"/>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
@@ -3762,7 +3905,7 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="26.4">
+    <row r="3" spans="1:26" ht="16">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -3808,7 +3951,7 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="66">
+    <row r="4" spans="1:26" ht="50">
       <c r="A4" s="11" t="s">
         <v>19</v>
       </c>
@@ -3854,7 +3997,7 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" ht="211.2">
+    <row r="5" spans="1:26" ht="144">
       <c r="A5" s="15" t="s">
         <v>28</v>
       </c>
@@ -3900,7 +4043,7 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" ht="38.4">
+    <row r="6" spans="1:26" ht="35">
       <c r="A6" s="19" t="s">
         <v>37</v>
       </c>
@@ -3946,7 +4089,7 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" ht="57.6">
+    <row r="7" spans="1:26" ht="52.5">
       <c r="A7" s="25" t="s">
         <v>41</v>
       </c>
@@ -3992,7 +4135,7 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="99.6">
+    <row r="8" spans="1:26" ht="85.5">
       <c r="A8" s="25" t="s">
         <v>42</v>
       </c>
@@ -4028,7 +4171,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="39.6">
+    <row r="9" spans="1:26" ht="37.5">
       <c r="A9" s="25" t="s">
         <v>45</v>
       </c>
@@ -4064,7 +4207,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="31.2">
+    <row r="10" spans="1:26" ht="32">
       <c r="A10" s="30" t="s">
         <v>47</v>
       </c>
@@ -4106,7 +4249,7 @@
       <c r="Y10" s="33"/>
       <c r="Z10" s="33"/>
     </row>
-    <row r="11" spans="1:26" ht="15.6">
+    <row r="11" spans="1:26" ht="16">
       <c r="A11" s="30" t="s">
         <v>53</v>
       </c>
@@ -4144,7 +4287,7 @@
       <c r="Y11" s="33"/>
       <c r="Z11" s="33"/>
     </row>
-    <row r="12" spans="1:26" ht="19.2">
+    <row r="12" spans="1:26" ht="17.5">
       <c r="A12" s="34" t="s">
         <v>56</v>
       </c>
@@ -4184,7 +4327,7 @@
       <c r="Y12" s="33"/>
       <c r="Z12" s="33"/>
     </row>
-    <row r="13" spans="1:26" ht="156">
+    <row r="13" spans="1:26" ht="144">
       <c r="A13" s="38" t="s">
         <v>57</v>
       </c>

--- a/[Document]/DEBA_진행방향.xlsx
+++ b/[Document]/DEBA_진행방향.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEIA]\[DEBA]\[Document]\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD48FEB-1379-433C-94CA-FB6564D3AF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201B298C-D7C4-4A9F-ACB7-BB0DB16566B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,17 @@
     <sheet name="회의일지" sheetId="2" r:id="rId1"/>
     <sheet name="2024년멤버" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="dC67+O/j+fHJsTbBe+9f5DOJupIssodpK6yLLSY9U0I="/>
     </ext>
@@ -26,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="89">
   <si>
     <r>
       <rPr>
@@ -2490,6 +2499,11 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
+    <t>조부모상 불참
+영상공유 및 전화피드백</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2514,7 +2528,121 @@
 2) 공통적으로 필요한 지식사항 전수
 3) 개별 피드백 기반 차주 진행계획 협의 및 일정 논의
 - 전처리 방향 확정 및 개별 방향 결정
-- 모델링 방향 결정</t>
+(1) 전처리 공부가 필요한 사람은 공유한 코드로 역산하여 공부(~5/31) 
+(2) 모델링 진행
+- 모델링 방향 결정
+(1) 승차인원수변수만 사용 -&gt; 2차원변환하여 X &amp; Y 분리 -&gt; 모델링: 선형회귀분석 + RanfomForestRegressor + XGBoostRegressor + DL
+(2) 승차인원수 Y + Test X 생성이 쉬운 날짜변수만 사용 -&gt; 날짜변수만 Test X로 생성 -&gt; 모델링: 선형회귀분석 + RanfomForestRegressor + XGBoostRegressor + DL
+(3) 승차인원수 Y + 모든 X를 사용 -&gt; Test X 생성 -&gt; 모델링: 선형회귀분석 + RanfomForestRegressor + XGBoostRegressor + DL
+- 인싸이트
+(1) CPI 경제지표 데이터 추가
+(2) 변수생성시 결측치 이슈 확인</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- 전처리 방향 확정 및 개별 방향 결정
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">(1) 전처리 공부가 필요한 사람은 공유한 코드로 역산하여 공부(~5/31) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+(2) 모델링 진행
+- 모델링 방향 결정
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(1) 승차인원수변수만 사용 -&gt; 2차원변환하여 X &amp; Y 분리 -&gt; 모델링: 선형회귀분석 + RanfomForestRegressor + XGBoostRegressor + DL</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. CPI 경제지표 데이터를 추가한건 굳
+2. 결측치 때문에 변수생성 부분 조건문 반영 굳
+3. 수치 오류에 대한 검증을 위해 엑셀 피벗테이블 비교로 신뢰성 확보 필요
+'- 전처리 방향 확정 및 개별 방향 결정
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">(1) 전처리 공부가 필요한 사람은 공유한 코드로 역산하여 공부(~5/31) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+(2) 모델링 진행
+- 모델링 방향 결정
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(1) 승차인원수변수만 사용 -&gt; 2차원변환하여 X &amp; Y 분리 -&gt; 모델링: 선형회귀분석 + RanfomForestRegressor + XGBoostRegressor + DL</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- 전처리 방향 확정 및 개별 방향 결정
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">(0) 강의를 전반적으로 최대한 수강
+(1) 전처리 공부가 필요한 사람은 공유한 코드로 역산하여 공부(~5/31) </t>
     </r>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -3249,7 +3377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3455,6 +3583,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3676,14 +3807,14 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="12.58203125" style="53" customWidth="1"/>
     <col min="2" max="2" width="13.9140625" style="58" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="139" style="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="141.08203125" style="53" customWidth="1"/>
     <col min="4" max="16384" width="8.9140625" style="53"/>
   </cols>
   <sheetData>
@@ -3696,7 +3827,7 @@
       </c>
       <c r="C1" s="61"/>
     </row>
-    <row r="2" spans="1:4" ht="102">
+    <row r="2" spans="1:4" ht="238">
       <c r="A2" s="63" t="s">
         <v>73</v>
       </c>
@@ -3704,7 +3835,7 @@
         <v>65</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3716,28 +3847,32 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="85">
       <c r="A4" s="64"/>
       <c r="B4" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="55" t="s">
-        <v>83</v>
+      <c r="C4" s="71" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="136">
       <c r="A5" s="64"/>
       <c r="B5" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="55"/>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="C5" s="71" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="51">
       <c r="A6" s="64"/>
       <c r="B6" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="55"/>
+      <c r="C6" s="71" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="64"/>
@@ -3748,19 +3883,23 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" ht="34">
       <c r="A8" s="64"/>
       <c r="B8" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="55"/>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="C8" s="55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="51">
       <c r="A9" s="65"/>
       <c r="B9" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="55"/>
+      <c r="C9" s="71" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="119">
       <c r="A10" s="62" t="s">

--- a/[Document]/DEBA_진행방향.xlsx
+++ b/[Document]/DEBA_진행방향.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEIA]\[DEBA]\[Document]\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201B298C-D7C4-4A9F-ACB7-BB0DB16566B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FEC347-6977-45E0-8AEA-A1A690703EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="88">
   <si>
     <r>
       <rPr>
@@ -2495,49 +2495,8 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>영상공유 및 전화피드백</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>조부모상 불참
 영상공유 및 전화피드백</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>[진행계획]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-1) 아래 빨간색 사항들에 대한 개별 진행상황 보고
-2) 공통적으로 필요한 지식사항 전수
-3) 개별 피드백 기반 차주 진행계획 협의 및 일정 논의
-- 전처리 방향 확정 및 개별 방향 결정
-(1) 전처리 공부가 필요한 사람은 공유한 코드로 역산하여 공부(~5/31) 
-(2) 모델링 진행
-- 모델링 방향 결정
-(1) 승차인원수변수만 사용 -&gt; 2차원변환하여 X &amp; Y 분리 -&gt; 모델링: 선형회귀분석 + RanfomForestRegressor + XGBoostRegressor + DL
-(2) 승차인원수 Y + Test X 생성이 쉬운 날짜변수만 사용 -&gt; 날짜변수만 Test X로 생성 -&gt; 모델링: 선형회귀분석 + RanfomForestRegressor + XGBoostRegressor + DL
-(3) 승차인원수 Y + 모든 X를 사용 -&gt; Test X 생성 -&gt; 모델링: 선형회귀분석 + RanfomForestRegressor + XGBoostRegressor + DL
-- 인싸이트
-(1) CPI 경제지표 데이터 추가
-(2) 변수생성시 결측치 이슈 확인</t>
-    </r>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
@@ -2643,6 +2602,45 @@
       </rPr>
       <t xml:space="preserve">(0) 강의를 전반적으로 최대한 수강
 (1) 전처리 공부가 필요한 사람은 공유한 코드로 역산하여 공부(~5/31) </t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>[진행계획]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+1) 아래 빨간색 사항들에 대한 개별 진행상황 보고
+2) 공통적으로 필요한 지식사항 전수
+3) 개별 피드백 기반 차주 진행계획 협의 및 일정 논의
+- 전처리 방향 확정 및 개별 방향 결정
+(1) 전처리 공부가 필요한 사람은 공유한 코드로 역산하여 공부(~5/31) 
+(2) 모델링 진행
+- 모델링 방향 결정
+(1) 승차인원수변수만 사용 -&gt; 2차원변환하여 X &amp; Y 분리 -&gt; 모델링: 선형회귀분석 + RanfomForestRegressor + XGBoostRegressor + DL
+(2) 승차인원수 Y + Test X 생성이 쉬운 날짜변수만 사용 -&gt; 날짜변수만 Test X로 생성 -&gt; 모델링: 선형회귀분석 + RanfomForestRegressor + XGBoostRegressor + DL
+(3) 승차인원수 Y + 모든 X를 사용 -&gt; Test X 생성 -&gt; 모델링: 선형회귀분석 + RanfomForestRegressor + XGBoostRegressor + DL
+- 인싸이트
+(1) CPI 경제지표 데이터 추가
+(2) 변수생성시 결측치 이슈 확인
+- 회의영상: https://us02web.zoom.us/rec/share/do83X91TjJuL8XjrK04-2XJkruLvngHpD4k08R7uWvDA7RtltjRC4O0hr-9atPXR.ZyTGm1kRjILaVEuW?startTime=1716782966000
+암호: Y*WTX2.b</t>
     </r>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -3559,6 +3557,9 @@
     <xf numFmtId="14" fontId="16" fillId="7" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="12" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3583,9 +3584,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3807,7 +3805,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="17"/>
@@ -3822,24 +3820,24 @@
       <c r="A1" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="61"/>
-    </row>
-    <row r="2" spans="1:4" ht="238">
-      <c r="A2" s="63" t="s">
+      <c r="C1" s="62"/>
+    </row>
+    <row r="2" spans="1:4" ht="289">
+      <c r="A2" s="64" t="s">
         <v>73</v>
       </c>
       <c r="B2" s="60" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="64"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="60" t="s">
         <v>74</v>
       </c>
@@ -3848,64 +3846,64 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="85">
-      <c r="A4" s="64"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="71" t="s">
-        <v>86</v>
+      <c r="C4" s="61" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="136">
-      <c r="A5" s="64"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="71" t="s">
-        <v>87</v>
+      <c r="C5" s="61" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="51">
-      <c r="A6" s="64"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="71" t="s">
-        <v>88</v>
+      <c r="C6" s="61" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="64"/>
+    <row r="7" spans="1:4" ht="51">
+      <c r="A7" s="65"/>
       <c r="B7" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="55" t="s">
-        <v>83</v>
+      <c r="C7" s="61" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="34">
-      <c r="A8" s="64"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="60" t="s">
         <v>81</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="51">
-      <c r="A9" s="65"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="71" t="s">
-        <v>88</v>
+      <c r="C9" s="61" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="119">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="64" t="s">
         <v>65</v>
       </c>
       <c r="C10" s="55" t="s">
@@ -3914,21 +3912,21 @@
       <c r="D10" s="56"/>
     </row>
     <row r="11" spans="1:4" ht="85">
-      <c r="A11" s="62"/>
-      <c r="B11" s="64"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="65"/>
       <c r="C11" s="57" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="153">
-      <c r="A12" s="62"/>
-      <c r="B12" s="65"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="57" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="136">
-      <c r="A13" s="62"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="54" t="s">
         <v>66</v>
       </c>
@@ -3967,21 +3965,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="68" t="s">
+      <c r="C1" s="70"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="71"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -4001,7 +3999,7 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="18">
-      <c r="A2" s="67"/>
+      <c r="A2" s="68"/>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>

--- a/[Document]/DEBA_진행방향.xlsx
+++ b/[Document]/DEBA_진행방향.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEIA]\[DEBA]\[Document]\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FEC347-6977-45E0-8AEA-A1A690703EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9220AC9E-C7B1-4496-A1C5-9BDF23262548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2455,15 +2455,7 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>5/27 13시</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>임보민</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>논문진행상황 공유 및 차주 계획</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
@@ -2642,6 +2634,19 @@
 - 회의영상: https://us02web.zoom.us/rec/share/do83X91TjJuL8XjrK04-2XJkruLvngHpD4k08R7uWvDA7RtltjRC4O0hr-9atPXR.ZyTGm1kRjILaVEuW?startTime=1716782966000
 암호: Y*WTX2.b</t>
     </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/27 13시
+6/4 12시반</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>논문진행상황 공유 및 차주 계획
+1. 선행자료 조사 엑셀 파일
+2. 타겟논문 3가지 ?? 2가지 ?? 
+3-1. Raw_Data
+3-2. Preprocessed_Data</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -3375,7 +3380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3584,6 +3589,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3805,7 +3813,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="17"/>
@@ -3826,82 +3834,82 @@
       <c r="C1" s="62"/>
     </row>
     <row r="2" spans="1:4" ht="289">
-      <c r="A2" s="64" t="s">
-        <v>73</v>
+      <c r="A2" s="72" t="s">
+        <v>86</v>
       </c>
       <c r="B2" s="60" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="85">
       <c r="A3" s="65"/>
       <c r="B3" s="60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="85">
       <c r="A4" s="65"/>
       <c r="B4" s="60" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C4" s="61" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="136">
       <c r="A5" s="65"/>
       <c r="B5" s="60" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="51">
       <c r="A6" s="65"/>
       <c r="B6" s="60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="51">
       <c r="A7" s="65"/>
       <c r="B7" s="60" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="34">
       <c r="A8" s="65"/>
       <c r="B8" s="60" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="51">
       <c r="A9" s="66"/>
       <c r="B9" s="60" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C9" s="61" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="119">
       <c r="A10" s="63" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B10" s="64" t="s">
         <v>65</v>
@@ -3954,7 +3962,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="14"/>

--- a/[Document]/DEBA_진행방향.xlsx
+++ b/[Document]/DEBA_진행방향.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEIA]\[DEBA]\[Document]\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9220AC9E-C7B1-4496-A1C5-9BDF23262548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8F1191-3BA3-4A86-9F7F-05DC8A809628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2598,6 +2598,19 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
+    <t>5/27 13시
+6/4 12시반</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>논문진행상황 공유 및 차주 계획
+1. 선행자료 조사 엑셀 파일
+2. 타겟논문 3가지 ?? 2가지 ?? 
+3-1. Raw_Data
+3-2. Preprocessed_Data</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2632,21 +2645,10 @@
 (1) CPI 경제지표 데이터 추가
 (2) 변수생성시 결측치 이슈 확인
 - 회의영상: https://us02web.zoom.us/rec/share/do83X91TjJuL8XjrK04-2XJkruLvngHpD4k08R7uWvDA7RtltjRC4O0hr-9atPXR.ZyTGm1kRjILaVEuW?startTime=1716782966000
-암호: Y*WTX2.b</t>
+암호: Y*WTX2.b
+- 회의영상: https://us02web.zoom.us/rec/share/WlvkRiCqe0CTEAaDJSowCrb-KG-ZE24dtzImNisu4SHFHmpyXdSQT1XAr4TQI-u7.1kgPGa6e9NtkHK77
+암호: #jSVBNX1</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>5/27 13시
-6/4 12시반</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>논문진행상황 공유 및 차주 계획
-1. 선행자료 조사 엑셀 파일
-2. 타겟논문 3가지 ?? 2가지 ?? 
-3-1. Raw_Data
-3-2. Preprocessed_Data</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -3580,6 +3582,9 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3589,9 +3594,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3809,11 +3811,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8691475C-6F5F-4B5E-977E-504D2E089430}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="17"/>
@@ -3833,15 +3835,15 @@
       </c>
       <c r="C1" s="62"/>
     </row>
-    <row r="2" spans="1:4" ht="289">
-      <c r="A2" s="72" t="s">
-        <v>86</v>
+    <row r="2" spans="1:4" ht="323">
+      <c r="A2" s="67" t="s">
+        <v>85</v>
       </c>
       <c r="B2" s="60" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="85">
@@ -3850,7 +3852,7 @@
         <v>73</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="85">
@@ -3973,21 +3975,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="69" t="s">
+      <c r="C1" s="71"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="72"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -4007,7 +4009,7 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="18">
-      <c r="A2" s="68"/>
+      <c r="A2" s="69"/>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>

--- a/[Document]/DEBA_진행방향.xlsx
+++ b/[Document]/DEBA_진행방향.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEIA]\[DEBA]\[Document]\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8F1191-3BA3-4A86-9F7F-05DC8A809628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A64FF26-2350-444F-9C26-69B191DB0D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3812,10 +3812,10 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="17"/>

--- a/[Document]/DEBA_진행방향.xlsx
+++ b/[Document]/DEBA_진행방향.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEIA]\[DEBA]\[Document]\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A64FF26-2350-444F-9C26-69B191DB0D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7146B486-7B35-4FE6-892C-350653FDC71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="회의일지" sheetId="2" r:id="rId1"/>
-    <sheet name="2024년멤버" sheetId="1" r:id="rId2"/>
+    <sheet name="회의일지" sheetId="3" r:id="rId1"/>
+    <sheet name="진행방향" sheetId="2" r:id="rId2"/>
+    <sheet name="2024년멤버" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="99">
   <si>
     <r>
       <rPr>
@@ -2649,6 +2650,74 @@
 - 회의영상: https://us02web.zoom.us/rec/share/WlvkRiCqe0CTEAaDJSowCrb-KG-ZE24dtzImNisu4SHFHmpyXdSQT1XAr4TQI-u7.1kgPGa6e9NtkHK77
 암호: #jSVBNX1</t>
     </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>멤버</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 강의보면서 모델링을 하기 위한 전처리 완료
+- 회귀분석 기준 데이터분석 싸이클(전체 분석 단계) 완성 후 점검 및 피드백!
+- Unnamed 삭제 해도 됨
+- 시각화: 0이랑 시각화는 관련이 없음</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 시험끝나서 신났음
+- Github 코드 위치 확인 완료
+- KTX 데이터 전처리 완료 예정!</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 회귀분석 기준 데이터분석 싸이클(전체 분석 단계) 완성 후 점검 및 피드백!
+- 질문 정리해서 메일 주면 내가 답변!
+- 질문: 성능을 높이면 됨 (새로운 전처리 또는 새로운 모델)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>- CPI 도움이 되지 않아서 KOSPIV를 반영함
+- XGBoost &gt; LSTM
+- 날짜를 25년으로 확장
+- Lagged Variable
+- 질문: ML 계열을 Hyperparameter 튜닝 노력대비 효과가 낮아
+- 방향1(새로운 전처리): Lagged Variable
+- 방향2(새로운 모델): https://github.com/thekimk/All-About-Deep-Learning</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 공휴일 추출부분 이슈가 있는데 시간이 오래걸리는 듯
+- 회귀분석 기준 데이터분석 싸이클(전체 분석 단계) 완성 후 점검 및 피드백!</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 회귀분석 기준 데이터분석 싸이클(전체 분석 단계) 완성 후 점검 및 피드백!(~7/5)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 입력데이터의 차원이 3차원이어야
+2. return_sequences 의미와 활용
+- 방향(새로운 모델): https://github.com/thekimk/All-About-Deep-Learning
+- Test Lag: 과거데이터로 예측을 해야 or 최근 데이터로 복붙하는게 일반적</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 회귀분석 기준 데이터분석 싸이클(전체 분석 단계) 완성 후 점검 및 피드백!(~7/5)
+- KTX 전처리 코드는 반영 완료
+- Train으로 모델 학습하고 Test로 예측 성능 확인</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 회귀분석 기준 데이터분석 싸이클(전체 분석 단계) 완성 후 점검 및 피드백!(~7/5)
+- 외부함수는 별도 설치가 필요함</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 출국: 6/30 (일요일) + 1달체류 + 저녁시간활용(~7/5)
+- 크롤링: 접속오류 이슈
+- 텍스트전처리: Soynlp + Knlpy
+- 선행연구 참고해서 그림 표를 만들어보자
+- LDA 모델링으로 주제 추출</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -3382,7 +3451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3594,6 +3663,22 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="12" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="16" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3808,14 +3893,145 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25E687D-2203-47AE-8989-F4F3DAFE827F}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.1640625" style="74" customWidth="1"/>
+    <col min="3" max="3" width="54.4140625" style="74" customWidth="1"/>
+    <col min="4" max="4" width="138.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.5">
+      <c r="A1" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="73">
+        <v>45470</v>
+      </c>
+      <c r="C1" s="73">
+        <v>45460</v>
+      </c>
+      <c r="D1" s="73">
+        <v>45450</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="102">
+      <c r="A2" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="85">
+      <c r="A3" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="136">
+      <c r="A4" s="75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="51">
+      <c r="A5" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="85">
+      <c r="A6" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="68">
+      <c r="A7" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="51">
+      <c r="A8" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="61" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8691475C-6F5F-4B5E-977E-504D2E089430}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="17"/>
@@ -3956,7 +4172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1001"/>
   <sheetViews>

--- a/[Document]/DEBA_진행방향.xlsx
+++ b/[Document]/DEBA_진행방향.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEIA]\[DEBA]\[Document]\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7146B486-7B35-4FE6-892C-350653FDC71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FBDA10-9CD9-4812-9ECE-D35D4C49D98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="회의일지" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="100">
   <si>
     <r>
       <rPr>
@@ -2713,11 +2713,16 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
+    <t>인턴중</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
     <t>- 출국: 6/30 (일요일) + 1달체류 + 저녁시간활용(~7/5)
 - 크롤링: 접속오류 이슈
 - 텍스트전처리: Soynlp + Knlpy
 - 선행연구 참고해서 그림 표를 만들어보자
-- LDA 모델링으로 주제 추출</t>
+- LDA 모델링으로 주제 추출
+- 7월초 별도 미팅 진행 후 2차논문 진행</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -3451,7 +3456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3636,6 +3641,21 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="12" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="12" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3663,22 +3683,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="12" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="16" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3900,14 +3904,14 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.1640625" style="74" customWidth="1"/>
-    <col min="3" max="3" width="54.4140625" style="74" customWidth="1"/>
+    <col min="2" max="2" width="44.1640625" customWidth="1"/>
+    <col min="3" max="3" width="54.4140625" customWidth="1"/>
     <col min="4" max="4" width="138.4140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3915,46 +3919,52 @@
       <c r="A1" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="73">
+      <c r="B1" s="62">
         <v>45470</v>
       </c>
-      <c r="C1" s="73">
+      <c r="C1" s="62">
         <v>45460</v>
       </c>
-      <c r="D1" s="73">
+      <c r="D1" s="62">
         <v>45450</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="102">
-      <c r="A2" s="75" t="s">
+    <row r="2" spans="1:4" ht="119">
+      <c r="A2" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="77" t="s">
-        <v>98</v>
+      <c r="B2" s="65" t="s">
+        <v>99</v>
       </c>
-      <c r="C2" s="76"/>
+      <c r="C2" s="55" t="s">
+        <v>86</v>
+      </c>
       <c r="D2" s="55" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="85">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
+      <c r="B3" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="64" t="s">
+        <v>98</v>
+      </c>
       <c r="D3" s="61" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="136">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="65" t="s">
         <v>92</v>
       </c>
       <c r="D4" s="61" t="s">
@@ -3962,13 +3972,13 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="51">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="65" t="s">
         <v>93</v>
       </c>
       <c r="D5" s="61" t="s">
@@ -3976,13 +3986,13 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="85">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="65" t="s">
         <v>89</v>
       </c>
       <c r="D6" s="61" t="s">
@@ -3990,13 +4000,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="68">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="65" t="s">
         <v>91</v>
       </c>
       <c r="D7" s="55" t="s">
@@ -4004,13 +4014,13 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="51">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="65" t="s">
         <v>90</v>
       </c>
       <c r="D8" s="61" t="s">
@@ -4046,13 +4056,13 @@
       <c r="A1" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="62"/>
+      <c r="C1" s="67"/>
     </row>
     <row r="2" spans="1:4" ht="323">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="72" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="60" t="s">
@@ -4063,7 +4073,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="85">
-      <c r="A3" s="65"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="60" t="s">
         <v>73</v>
       </c>
@@ -4072,7 +4082,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="85">
-      <c r="A4" s="65"/>
+      <c r="A4" s="70"/>
       <c r="B4" s="60" t="s">
         <v>74</v>
       </c>
@@ -4081,7 +4091,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="136">
-      <c r="A5" s="65"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="60" t="s">
         <v>75</v>
       </c>
@@ -4090,7 +4100,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="51">
-      <c r="A6" s="65"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="60" t="s">
         <v>76</v>
       </c>
@@ -4099,7 +4109,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="51">
-      <c r="A7" s="65"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="60" t="s">
         <v>77</v>
       </c>
@@ -4108,7 +4118,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="34">
-      <c r="A8" s="65"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="60" t="s">
         <v>79</v>
       </c>
@@ -4117,7 +4127,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="51">
-      <c r="A9" s="66"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="60" t="s">
         <v>78</v>
       </c>
@@ -4126,10 +4136,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="119">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="69" t="s">
         <v>65</v>
       </c>
       <c r="C10" s="55" t="s">
@@ -4138,21 +4148,21 @@
       <c r="D10" s="56"/>
     </row>
     <row r="11" spans="1:4" ht="85">
-      <c r="A11" s="63"/>
-      <c r="B11" s="65"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="57" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="153">
-      <c r="A12" s="63"/>
-      <c r="B12" s="66"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="71"/>
       <c r="C12" s="57" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="136">
-      <c r="A13" s="63"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="54" t="s">
         <v>66</v>
       </c>
@@ -4191,21 +4201,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="70" t="s">
+      <c r="C1" s="76"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="72"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="77"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -4225,7 +4235,7 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="18">
-      <c r="A2" s="69"/>
+      <c r="A2" s="74"/>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
